--- a/Recycling/Met_rec/metrec_Min_hist_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>30391.99057451257</v>
+        <v>30391.99057451256</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>50021.98131592009</v>
+        <v>50021.9813159201</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>57877.16490272012</v>
+        <v>57877.16490272013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>84055.74857747871</v>
+        <v>84055.74857747872</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>455285.6495998814</v>
+        <v>455285.6495998815</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>907293.3796566342</v>
+        <v>907293.3796566341</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1771147.898692238</v>
+        <v>1771147.898692237</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1847140.799864978</v>
+        <v>1847140.799864977</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1876913.11997753</v>
+        <v>1876913.119977531</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_hist_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist_Avg.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3997729.633145678</v>
+        <v>3997729.633145679</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5146.525684131254</v>
+        <v>5146.525684131253</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>33551.03683707345</v>
+        <v>33551.03683707346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3804,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>34665.17631858316</v>
+        <v>34665.17631858315</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>32592.15264212761</v>
+        <v>32592.1526421276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>80227.02279072757</v>
+        <v>80227.02279072758</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>89370.91825708745</v>
+        <v>89370.91825708744</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>859445.2860251275</v>
+        <v>859445.2860251276</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1811541.781134679</v>
+        <v>1811541.781134678</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1994591.694383043</v>
+        <v>1994591.694383042</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8584,7 +8584,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7892582.973051569</v>
+        <v>7892582.973051568</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8904,7 +8904,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5486666.464767513</v>
+        <v>5486666.464767514</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3015572.529300884</v>
+        <v>3015572.529300885</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2953724.734014384</v>
+        <v>2953724.734014385</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2838163.457768706</v>
+        <v>2838163.457768707</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10128,7 +10128,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5115873.523537438</v>
+        <v>5115873.523537437</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9277378.774905503</v>
+        <v>9277378.774905505</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12096,7 +12096,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1725814.869230379</v>
+        <v>1725814.869230378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2545297.64525622</v>
+        <v>2545297.645256221</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12576,7 +12576,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4657676.570298395</v>
+        <v>4657676.570298396</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13728,7 +13728,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2300243.343043011</v>
+        <v>2300243.343043012</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3209729.597068534</v>
+        <v>3209729.597068533</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14456,7 +14456,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>45.4736658754303</v>
+        <v>45.47366587543031</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2933457.460910731</v>
+        <v>2933457.46091073</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15520,7 +15520,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>16454333.13881214</v>
+        <v>16454333.13881215</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3046661.274773047</v>
+        <v>3046661.274773046</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4953977.367384589</v>
+        <v>4953977.36738459</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17516,7 +17516,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3624990.635083368</v>
+        <v>3624990.635083369</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2627464.038341748</v>
+        <v>2627464.038341749</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18084,7 +18084,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4880642.779579087</v>
+        <v>4880642.779579088</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18288,7 +18288,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4812706.932080513</v>
+        <v>4812706.932080512</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18536,7 +18536,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3543887.217123732</v>
+        <v>3543887.217123733</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18988,7 +18988,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>515.8867279610083</v>
+        <v>515.8867279610084</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2424550.226022098</v>
+        <v>2424550.226022099</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19308,7 +19308,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4425388.690777215</v>
+        <v>4425388.690777216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19352,7 +19352,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3389729.646665182</v>
+        <v>3389729.646665181</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4446443.513138064</v>
+        <v>4446443.513138063</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3419400.753549631</v>
+        <v>3419400.753549632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19600,7 +19600,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>23083826.94494349</v>
+        <v>23083826.9449435</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19848,7 +19848,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2476802.45433477</v>
+        <v>2476802.454334771</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>23874424.60527387</v>
+        <v>23874424.60527386</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20124,7 +20124,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4576228.682880768</v>
+        <v>4576228.682880769</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3605795.155648003</v>
+        <v>3605795.155648004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20736,7 +20736,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4733446.635762742</v>
+        <v>4733446.635762743</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3957945.88011926</v>
+        <v>3957945.880119261</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>25843737.72403951</v>
+        <v>25843737.72403952</v>
       </c>
     </row>
     <row r="13" spans="1:4">
